--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cd274-Cd80.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cd274-Cd80.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd274</t>
   </si>
   <si>
     <t>Cd80</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.2521564212513</v>
+        <v>13.625722</v>
       </c>
       <c r="H2">
-        <v>13.2521564212513</v>
+        <v>40.877166</v>
       </c>
       <c r="I2">
-        <v>0.4408350661334605</v>
+        <v>0.4351608079099069</v>
       </c>
       <c r="J2">
-        <v>0.4408350661334605</v>
+        <v>0.4351608079099069</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.15229643936923</v>
+        <v>0.6791226666666667</v>
       </c>
       <c r="N2">
-        <v>2.15229643936923</v>
+        <v>2.037368</v>
       </c>
       <c r="O2">
-        <v>0.07831869078928556</v>
+        <v>0.02029974872115254</v>
       </c>
       <c r="P2">
-        <v>0.07831869078928556</v>
+        <v>0.02029974872115254</v>
       </c>
       <c r="Q2">
-        <v>28.52256907942325</v>
+        <v>9.253536659898668</v>
       </c>
       <c r="R2">
-        <v>28.52256907942325</v>
+        <v>83.281829939088</v>
       </c>
       <c r="S2">
-        <v>0.03452562523358075</v>
+        <v>0.008833655053864837</v>
       </c>
       <c r="T2">
-        <v>0.03452562523358075</v>
+        <v>0.008833655053864835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.2521564212513</v>
+        <v>13.625722</v>
       </c>
       <c r="H3">
-        <v>13.2521564212513</v>
+        <v>40.877166</v>
       </c>
       <c r="I3">
-        <v>0.4408350661334605</v>
+        <v>0.4351608079099069</v>
       </c>
       <c r="J3">
-        <v>0.4408350661334605</v>
+        <v>0.4351608079099069</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.4511238449624</v>
+        <v>2.17083</v>
       </c>
       <c r="N3">
-        <v>11.4511238449624</v>
+        <v>6.51249</v>
       </c>
       <c r="O3">
-        <v>0.4166884315741653</v>
+        <v>0.06488857709997345</v>
       </c>
       <c r="P3">
-        <v>0.4166884315741653</v>
+        <v>0.06488857709997344</v>
       </c>
       <c r="Q3">
-        <v>151.7520843925623</v>
+        <v>29.57912608926</v>
       </c>
       <c r="R3">
-        <v>151.7520843925623</v>
+        <v>266.21213480334</v>
       </c>
       <c r="S3">
-        <v>0.1836908722900451</v>
+        <v>0.02823696563494873</v>
       </c>
       <c r="T3">
-        <v>0.1836908722900451</v>
+        <v>0.02823696563494872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.2521564212513</v>
+        <v>13.625722</v>
       </c>
       <c r="H4">
-        <v>13.2521564212513</v>
+        <v>40.877166</v>
       </c>
       <c r="I4">
-        <v>0.4408350661334605</v>
+        <v>0.4351608079099069</v>
       </c>
       <c r="J4">
-        <v>0.4408350661334605</v>
+        <v>0.4351608079099069</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.2295614980086</v>
+        <v>11.483351</v>
       </c>
       <c r="N4">
-        <v>13.2295614980086</v>
+        <v>34.450053</v>
       </c>
       <c r="O4">
-        <v>0.481402987659092</v>
+        <v>0.3432504188395946</v>
       </c>
       <c r="P4">
-        <v>0.481402987659092</v>
+        <v>0.3432504188395946</v>
       </c>
       <c r="Q4">
-        <v>175.3202183561736</v>
+        <v>156.468948354422</v>
       </c>
       <c r="R4">
-        <v>175.3202183561736</v>
+        <v>1408.220535189798</v>
       </c>
       <c r="S4">
-        <v>0.2122193179015413</v>
+        <v>0.1493691295776519</v>
       </c>
       <c r="T4">
-        <v>0.2122193179015413</v>
+        <v>0.1493691295776519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.2521564212513</v>
+        <v>13.625722</v>
       </c>
       <c r="H5">
-        <v>13.2521564212513</v>
+        <v>40.877166</v>
       </c>
       <c r="I5">
-        <v>0.4408350661334605</v>
+        <v>0.4351608079099069</v>
       </c>
       <c r="J5">
-        <v>0.4408350661334605</v>
+        <v>0.4351608079099069</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.648279940483108</v>
+        <v>18.27015033333333</v>
       </c>
       <c r="N5">
-        <v>0.648279940483108</v>
+        <v>54.810451</v>
       </c>
       <c r="O5">
-        <v>0.02358988997745718</v>
+        <v>0.5461155680235695</v>
       </c>
       <c r="P5">
-        <v>0.02358988997745718</v>
+        <v>0.5461155680235695</v>
       </c>
       <c r="Q5">
-        <v>8.59110717604163</v>
+        <v>248.9439893402074</v>
       </c>
       <c r="R5">
-        <v>8.59110717604163</v>
+        <v>2240.495904061866</v>
       </c>
       <c r="S5">
-        <v>0.01039925070829339</v>
+        <v>0.2376480917933143</v>
       </c>
       <c r="T5">
-        <v>0.01039925070829339</v>
+        <v>0.2376480917933142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.27544125353273</v>
+        <v>13.625722</v>
       </c>
       <c r="H6">
-        <v>2.27544125353273</v>
+        <v>40.877166</v>
       </c>
       <c r="I6">
-        <v>0.0756929109194133</v>
+        <v>0.4351608079099069</v>
       </c>
       <c r="J6">
-        <v>0.0756929109194133</v>
+        <v>0.4351608079099069</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.15229643936923</v>
+        <v>0.8512786666666666</v>
       </c>
       <c r="N6">
-        <v>2.15229643936923</v>
+        <v>2.553836</v>
       </c>
       <c r="O6">
-        <v>0.07831869078928556</v>
+        <v>0.02544568731570993</v>
       </c>
       <c r="P6">
-        <v>0.07831869078928556</v>
+        <v>0.02544568731570993</v>
       </c>
       <c r="Q6">
-        <v>4.897424107972353</v>
+        <v>11.59928645653067</v>
       </c>
       <c r="R6">
-        <v>4.897424107972353</v>
+        <v>104.393578108776</v>
       </c>
       <c r="S6">
-        <v>0.005928169685238467</v>
+        <v>0.01107296585012721</v>
       </c>
       <c r="T6">
-        <v>0.005928169685238467</v>
+        <v>0.0110729658501272</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.27544125353273</v>
+        <v>2.282683</v>
       </c>
       <c r="H7">
-        <v>2.27544125353273</v>
+        <v>6.848049</v>
       </c>
       <c r="I7">
-        <v>0.0756929109194133</v>
+        <v>0.07290139770077578</v>
       </c>
       <c r="J7">
-        <v>0.0756929109194133</v>
+        <v>0.07290139770077578</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>11.4511238449624</v>
+        <v>0.6791226666666667</v>
       </c>
       <c r="N7">
-        <v>11.4511238449624</v>
+        <v>2.037368</v>
       </c>
       <c r="O7">
-        <v>0.4166884315741653</v>
+        <v>0.02029974872115254</v>
       </c>
       <c r="P7">
-        <v>0.4166884315741653</v>
+        <v>0.02029974872115254</v>
       </c>
       <c r="Q7">
-        <v>26.05635959613978</v>
+        <v>1.550221766114667</v>
       </c>
       <c r="R7">
-        <v>26.05635959613978</v>
+        <v>13.951995895032</v>
       </c>
       <c r="S7">
-        <v>0.03154036033229334</v>
+        <v>0.001479880054746556</v>
       </c>
       <c r="T7">
-        <v>0.03154036033229334</v>
+        <v>0.001479880054746556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.27544125353273</v>
+        <v>2.282683</v>
       </c>
       <c r="H8">
-        <v>2.27544125353273</v>
+        <v>6.848049</v>
       </c>
       <c r="I8">
-        <v>0.0756929109194133</v>
+        <v>0.07290139770077578</v>
       </c>
       <c r="J8">
-        <v>0.0756929109194133</v>
+        <v>0.07290139770077578</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.2295614980086</v>
+        <v>2.17083</v>
       </c>
       <c r="N8">
-        <v>13.2295614980086</v>
+        <v>6.51249</v>
       </c>
       <c r="O8">
-        <v>0.481402987659092</v>
+        <v>0.06488857709997345</v>
       </c>
       <c r="P8">
-        <v>0.481402987659092</v>
+        <v>0.06488857709997344</v>
       </c>
       <c r="Q8">
-        <v>30.10308999871703</v>
+        <v>4.95531673689</v>
       </c>
       <c r="R8">
-        <v>30.10308999871703</v>
+        <v>44.59785063200999</v>
       </c>
       <c r="S8">
-        <v>0.03643879346121907</v>
+        <v>0.004730467965402616</v>
       </c>
       <c r="T8">
-        <v>0.03643879346121907</v>
+        <v>0.004730467965402615</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.27544125353273</v>
+        <v>2.282683</v>
       </c>
       <c r="H9">
-        <v>2.27544125353273</v>
+        <v>6.848049</v>
       </c>
       <c r="I9">
-        <v>0.0756929109194133</v>
+        <v>0.07290139770077578</v>
       </c>
       <c r="J9">
-        <v>0.0756929109194133</v>
+        <v>0.07290139770077578</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.648279940483108</v>
+        <v>11.483351</v>
       </c>
       <c r="N9">
-        <v>0.648279940483108</v>
+        <v>34.450053</v>
       </c>
       <c r="O9">
-        <v>0.02358988997745718</v>
+        <v>0.3432504188395946</v>
       </c>
       <c r="P9">
-        <v>0.02358988997745718</v>
+        <v>0.3432504188395946</v>
       </c>
       <c r="Q9">
-        <v>1.475122920413007</v>
+        <v>26.212850110733</v>
       </c>
       <c r="R9">
-        <v>1.475122920413007</v>
+        <v>235.915650996597</v>
       </c>
       <c r="S9">
-        <v>0.001785587440662427</v>
+        <v>0.02502343529478314</v>
       </c>
       <c r="T9">
-        <v>0.001785587440662427</v>
+        <v>0.02502343529478314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.30964922095867</v>
+        <v>2.282683</v>
       </c>
       <c r="H10">
-        <v>6.30964922095867</v>
+        <v>6.848049</v>
       </c>
       <c r="I10">
-        <v>0.2098914729937678</v>
+        <v>0.07290139770077578</v>
       </c>
       <c r="J10">
-        <v>0.2098914729937678</v>
+        <v>0.07290139770077578</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.15229643936923</v>
+        <v>18.27015033333333</v>
       </c>
       <c r="N10">
-        <v>2.15229643936923</v>
+        <v>54.810451</v>
       </c>
       <c r="O10">
-        <v>0.07831869078928556</v>
+        <v>0.5461155680235695</v>
       </c>
       <c r="P10">
-        <v>0.07831869078928556</v>
+        <v>0.5461155680235695</v>
       </c>
       <c r="Q10">
-        <v>13.58023555193818</v>
+        <v>41.70496157334433</v>
       </c>
       <c r="R10">
-        <v>13.58023555193818</v>
+        <v>375.344654160099</v>
       </c>
       <c r="S10">
-        <v>0.01643842537270658</v>
+        <v>0.03981258821507131</v>
       </c>
       <c r="T10">
-        <v>0.01643842537270658</v>
+        <v>0.03981258821507131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.30964922095867</v>
+        <v>2.282683</v>
       </c>
       <c r="H11">
-        <v>6.30964922095867</v>
+        <v>6.848049</v>
       </c>
       <c r="I11">
-        <v>0.2098914729937678</v>
+        <v>0.07290139770077578</v>
       </c>
       <c r="J11">
-        <v>0.2098914729937678</v>
+        <v>0.07290139770077578</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.4511238449624</v>
+        <v>0.8512786666666666</v>
       </c>
       <c r="N11">
-        <v>11.4511238449624</v>
+        <v>2.553836</v>
       </c>
       <c r="O11">
-        <v>0.4166884315741653</v>
+        <v>0.02544568731570993</v>
       </c>
       <c r="P11">
-        <v>0.4166884315741653</v>
+        <v>0.02544568731570993</v>
       </c>
       <c r="Q11">
-        <v>72.25257464746825</v>
+        <v>1.943199340662667</v>
       </c>
       <c r="R11">
-        <v>72.25257464746825</v>
+        <v>17.488794065964</v>
       </c>
       <c r="S11">
-        <v>0.08745934868256436</v>
+        <v>0.001855026170772155</v>
       </c>
       <c r="T11">
-        <v>0.08745934868256436</v>
+        <v>0.001855026170772155</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.30964922095867</v>
+        <v>6.555393</v>
       </c>
       <c r="H12">
-        <v>6.30964922095867</v>
+        <v>19.666179</v>
       </c>
       <c r="I12">
-        <v>0.2098914729937678</v>
+        <v>0.2093577216713322</v>
       </c>
       <c r="J12">
-        <v>0.2098914729937678</v>
+        <v>0.2093577216713322</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>13.2295614980086</v>
+        <v>0.6791226666666667</v>
       </c>
       <c r="N12">
-        <v>13.2295614980086</v>
+        <v>2.037368</v>
       </c>
       <c r="O12">
-        <v>0.481402987659092</v>
+        <v>0.02029974872115254</v>
       </c>
       <c r="P12">
-        <v>0.481402987659092</v>
+        <v>0.02029974872115254</v>
       </c>
       <c r="Q12">
-        <v>83.47389239953478</v>
+        <v>4.451915975207999</v>
       </c>
       <c r="R12">
-        <v>83.47389239953478</v>
+        <v>40.067243776872</v>
       </c>
       <c r="S12">
-        <v>0.1010423821833674</v>
+        <v>0.004249909142761034</v>
       </c>
       <c r="T12">
-        <v>0.1010423821833674</v>
+        <v>0.004249909142761034</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.30964922095867</v>
+        <v>6.555393</v>
       </c>
       <c r="H13">
-        <v>6.30964922095867</v>
+        <v>19.666179</v>
       </c>
       <c r="I13">
-        <v>0.2098914729937678</v>
+        <v>0.2093577216713322</v>
       </c>
       <c r="J13">
-        <v>0.2098914729937678</v>
+        <v>0.2093577216713322</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.648279940483108</v>
+        <v>2.17083</v>
       </c>
       <c r="N13">
-        <v>0.648279940483108</v>
+        <v>6.51249</v>
       </c>
       <c r="O13">
-        <v>0.02358988997745718</v>
+        <v>0.06488857709997345</v>
       </c>
       <c r="P13">
-        <v>0.02358988997745718</v>
+        <v>0.06488857709997344</v>
       </c>
       <c r="Q13">
-        <v>4.090419021432376</v>
+        <v>14.23064378619</v>
       </c>
       <c r="R13">
-        <v>4.090419021432376</v>
+        <v>128.07579407571</v>
       </c>
       <c r="S13">
-        <v>0.004951316755129407</v>
+        <v>0.01358492466414502</v>
       </c>
       <c r="T13">
-        <v>0.004951316755129407</v>
+        <v>0.01358492466414502</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.22423740831962</v>
+        <v>6.555393</v>
       </c>
       <c r="H14">
-        <v>8.22423740831962</v>
+        <v>19.666179</v>
       </c>
       <c r="I14">
-        <v>0.2735805499533583</v>
+        <v>0.2093577216713322</v>
       </c>
       <c r="J14">
-        <v>0.2735805499533583</v>
+        <v>0.2093577216713322</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.15229643936923</v>
+        <v>11.483351</v>
       </c>
       <c r="N14">
-        <v>2.15229643936923</v>
+        <v>34.450053</v>
       </c>
       <c r="O14">
-        <v>0.07831869078928556</v>
+        <v>0.3432504188395946</v>
       </c>
       <c r="P14">
-        <v>0.07831869078928556</v>
+        <v>0.3432504188395946</v>
       </c>
       <c r="Q14">
-        <v>17.70099689045355</v>
+        <v>75.27787876194299</v>
       </c>
       <c r="R14">
-        <v>17.70099689045355</v>
+        <v>677.5009088574869</v>
       </c>
       <c r="S14">
-        <v>0.02142647049775976</v>
+        <v>0.07186212565098804</v>
       </c>
       <c r="T14">
-        <v>0.02142647049775976</v>
+        <v>0.07186212565098804</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.22423740831962</v>
+        <v>6.555393</v>
       </c>
       <c r="H15">
-        <v>8.22423740831962</v>
+        <v>19.666179</v>
       </c>
       <c r="I15">
-        <v>0.2735805499533583</v>
+        <v>0.2093577216713322</v>
       </c>
       <c r="J15">
-        <v>0.2735805499533583</v>
+        <v>0.2093577216713322</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.4511238449624</v>
+        <v>18.27015033333333</v>
       </c>
       <c r="N15">
-        <v>11.4511238449624</v>
+        <v>54.810451</v>
       </c>
       <c r="O15">
-        <v>0.4166884315741653</v>
+        <v>0.5461155680235695</v>
       </c>
       <c r="P15">
-        <v>0.4166884315741653</v>
+        <v>0.5461155680235695</v>
       </c>
       <c r="Q15">
-        <v>94.17676109304057</v>
+        <v>119.768015604081</v>
       </c>
       <c r="R15">
-        <v>94.17676109304057</v>
+        <v>1077.912140436729</v>
       </c>
       <c r="S15">
-        <v>0.1139978502692625</v>
+        <v>0.11433351109066</v>
       </c>
       <c r="T15">
-        <v>0.1139978502692625</v>
+        <v>0.11433351109066</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.22423740831962</v>
+        <v>6.555393</v>
       </c>
       <c r="H16">
-        <v>8.22423740831962</v>
+        <v>19.666179</v>
       </c>
       <c r="I16">
-        <v>0.2735805499533583</v>
+        <v>0.2093577216713322</v>
       </c>
       <c r="J16">
-        <v>0.2735805499533583</v>
+        <v>0.2093577216713322</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.2295614980086</v>
+        <v>0.8512786666666666</v>
       </c>
       <c r="N16">
-        <v>13.2295614980086</v>
+        <v>2.553836</v>
       </c>
       <c r="O16">
-        <v>0.481402987659092</v>
+        <v>0.02544568731570993</v>
       </c>
       <c r="P16">
-        <v>0.481402987659092</v>
+        <v>0.02544568731570993</v>
       </c>
       <c r="Q16">
-        <v>108.8030545675873</v>
+        <v>5.580466212515999</v>
       </c>
       <c r="R16">
-        <v>108.8030545675873</v>
+        <v>50.224195912644</v>
       </c>
       <c r="S16">
-        <v>0.1317024941129642</v>
+        <v>0.005327251122778148</v>
       </c>
       <c r="T16">
-        <v>0.1317024941129642</v>
+        <v>0.005327251122778149</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.793839333333333</v>
+      </c>
+      <c r="H17">
+        <v>26.381518</v>
+      </c>
+      <c r="I17">
+        <v>0.2808463455311395</v>
+      </c>
+      <c r="J17">
+        <v>0.2808463455311396</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.6791226666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.037368</v>
+      </c>
+      <c r="O17">
+        <v>0.02029974872115254</v>
+      </c>
+      <c r="P17">
+        <v>0.02029974872115254</v>
+      </c>
+      <c r="Q17">
+        <v>5.972095618291555</v>
+      </c>
+      <c r="R17">
+        <v>53.748860564624</v>
+      </c>
+      <c r="S17">
+        <v>0.005701110243536113</v>
+      </c>
+      <c r="T17">
+        <v>0.005701110243536114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8.793839333333333</v>
+      </c>
+      <c r="H18">
+        <v>26.381518</v>
+      </c>
+      <c r="I18">
+        <v>0.2808463455311395</v>
+      </c>
+      <c r="J18">
+        <v>0.2808463455311396</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.17083</v>
+      </c>
+      <c r="N18">
+        <v>6.51249</v>
+      </c>
+      <c r="O18">
+        <v>0.06488857709997345</v>
+      </c>
+      <c r="P18">
+        <v>0.06488857709997344</v>
+      </c>
+      <c r="Q18">
+        <v>19.08993023998</v>
+      </c>
+      <c r="R18">
+        <v>171.80937215982</v>
+      </c>
+      <c r="S18">
+        <v>0.01822371974524313</v>
+      </c>
+      <c r="T18">
+        <v>0.01822371974524313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.793839333333333</v>
+      </c>
+      <c r="H19">
+        <v>26.381518</v>
+      </c>
+      <c r="I19">
+        <v>0.2808463455311395</v>
+      </c>
+      <c r="J19">
+        <v>0.2808463455311396</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.483351</v>
+      </c>
+      <c r="N19">
+        <v>34.450053</v>
+      </c>
+      <c r="O19">
+        <v>0.3432504188395946</v>
+      </c>
+      <c r="P19">
+        <v>0.3432504188395946</v>
+      </c>
+      <c r="Q19">
+        <v>100.9827437022727</v>
+      </c>
+      <c r="R19">
+        <v>908.8446933204539</v>
+      </c>
+      <c r="S19">
+        <v>0.09640062573313314</v>
+      </c>
+      <c r="T19">
+        <v>0.09640062573313316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.793839333333333</v>
+      </c>
+      <c r="H20">
+        <v>26.381518</v>
+      </c>
+      <c r="I20">
+        <v>0.2808463455311395</v>
+      </c>
+      <c r="J20">
+        <v>0.2808463455311396</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>18.27015033333333</v>
+      </c>
+      <c r="N20">
+        <v>54.810451</v>
+      </c>
+      <c r="O20">
+        <v>0.5461155680235695</v>
+      </c>
+      <c r="P20">
+        <v>0.5461155680235695</v>
+      </c>
+      <c r="Q20">
+        <v>160.6647666271798</v>
+      </c>
+      <c r="R20">
+        <v>1445.982899644618</v>
+      </c>
+      <c r="S20">
+        <v>0.1533745615170819</v>
+      </c>
+      <c r="T20">
+        <v>0.153374561517082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>8.22423740831962</v>
-      </c>
-      <c r="H17">
-        <v>8.22423740831962</v>
-      </c>
-      <c r="I17">
-        <v>0.2735805499533583</v>
-      </c>
-      <c r="J17">
-        <v>0.2735805499533583</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.648279940483108</v>
-      </c>
-      <c r="N17">
-        <v>0.648279940483108</v>
-      </c>
-      <c r="O17">
-        <v>0.02358988997745718</v>
-      </c>
-      <c r="P17">
-        <v>0.02358988997745718</v>
-      </c>
-      <c r="Q17">
-        <v>5.331608137584394</v>
-      </c>
-      <c r="R17">
-        <v>5.331608137584394</v>
-      </c>
-      <c r="S17">
-        <v>0.006453735073371952</v>
-      </c>
-      <c r="T17">
-        <v>0.006453735073371952</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.793839333333333</v>
+      </c>
+      <c r="H21">
+        <v>26.381518</v>
+      </c>
+      <c r="I21">
+        <v>0.2808463455311395</v>
+      </c>
+      <c r="J21">
+        <v>0.2808463455311396</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.8512786666666666</v>
+      </c>
+      <c r="N21">
+        <v>2.553836</v>
+      </c>
+      <c r="O21">
+        <v>0.02544568731570993</v>
+      </c>
+      <c r="P21">
+        <v>0.02544568731570993</v>
+      </c>
+      <c r="Q21">
+        <v>7.486007822560888</v>
+      </c>
+      <c r="R21">
+        <v>67.37407040304799</v>
+      </c>
+      <c r="S21">
+        <v>0.007146328292145206</v>
+      </c>
+      <c r="T21">
+        <v>0.007146328292145207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.05428633333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.162859</v>
+      </c>
+      <c r="I22">
+        <v>0.001733727186845573</v>
+      </c>
+      <c r="J22">
+        <v>0.001733727186845574</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.6791226666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.037368</v>
+      </c>
+      <c r="O22">
+        <v>0.02029974872115254</v>
+      </c>
+      <c r="P22">
+        <v>0.02029974872115254</v>
+      </c>
+      <c r="Q22">
+        <v>0.03686707945688888</v>
+      </c>
+      <c r="R22">
+        <v>0.331803715112</v>
+      </c>
+      <c r="S22">
+        <v>3.519422624399581E-05</v>
+      </c>
+      <c r="T22">
+        <v>3.519422624399582E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.05428633333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.162859</v>
+      </c>
+      <c r="I23">
+        <v>0.001733727186845573</v>
+      </c>
+      <c r="J23">
+        <v>0.001733727186845574</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.17083</v>
+      </c>
+      <c r="N23">
+        <v>6.51249</v>
+      </c>
+      <c r="O23">
+        <v>0.06488857709997345</v>
+      </c>
+      <c r="P23">
+        <v>0.06488857709997344</v>
+      </c>
+      <c r="Q23">
+        <v>0.11784640099</v>
+      </c>
+      <c r="R23">
+        <v>1.06061760891</v>
+      </c>
+      <c r="S23">
+        <v>0.0001124990902339491</v>
+      </c>
+      <c r="T23">
+        <v>0.0001124990902339491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.05428633333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.162859</v>
+      </c>
+      <c r="I24">
+        <v>0.001733727186845573</v>
+      </c>
+      <c r="J24">
+        <v>0.001733727186845574</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.483351</v>
+      </c>
+      <c r="N24">
+        <v>34.450053</v>
+      </c>
+      <c r="O24">
+        <v>0.3432504188395946</v>
+      </c>
+      <c r="P24">
+        <v>0.3432504188395946</v>
+      </c>
+      <c r="Q24">
+        <v>0.6233890201696666</v>
+      </c>
+      <c r="R24">
+        <v>5.610501181527</v>
+      </c>
+      <c r="S24">
+        <v>0.0005951025830383351</v>
+      </c>
+      <c r="T24">
+        <v>0.0005951025830383351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.05428633333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.162859</v>
+      </c>
+      <c r="I25">
+        <v>0.001733727186845573</v>
+      </c>
+      <c r="J25">
+        <v>0.001733727186845574</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>18.27015033333333</v>
+      </c>
+      <c r="N25">
+        <v>54.810451</v>
+      </c>
+      <c r="O25">
+        <v>0.5461155680235695</v>
+      </c>
+      <c r="P25">
+        <v>0.5461155680235695</v>
+      </c>
+      <c r="Q25">
+        <v>0.9918194710454444</v>
+      </c>
+      <c r="R25">
+        <v>8.926375239408999</v>
+      </c>
+      <c r="S25">
+        <v>0.0009468154074420756</v>
+      </c>
+      <c r="T25">
+        <v>0.0009468154074420757</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.05428633333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.162859</v>
+      </c>
+      <c r="I26">
+        <v>0.001733727186845573</v>
+      </c>
+      <c r="J26">
+        <v>0.001733727186845574</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.8512786666666666</v>
+      </c>
+      <c r="N26">
+        <v>2.553836</v>
+      </c>
+      <c r="O26">
+        <v>0.02544568731570993</v>
+      </c>
+      <c r="P26">
+        <v>0.02544568731570993</v>
+      </c>
+      <c r="Q26">
+        <v>0.04621279745822222</v>
+      </c>
+      <c r="R26">
+        <v>0.415915177124</v>
+      </c>
+      <c r="S26">
+        <v>4.411587988721787E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.411587988721788E-05</v>
       </c>
     </row>
   </sheetData>
